--- a/data/trans_orig/P40-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P40-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{765F44BB-1B42-49C6-957F-22588FA7A256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55A6623-03CC-430D-8834-725619D6A882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41F8EC6E-89BD-4761-AD8D-D6167179F065}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89170D37-D287-453B-8A33-D970B5D52830}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="645">
   <si>
     <t>Población según su salud autopercibida en los últimos 12 meses en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -80,1912 +80,1900 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>Muy bueno</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2012 (Tasa respuesta: 98,99%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2015 (Tasa respuesta: 99,22%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Malo</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>Bueno</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>Muy bueno</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2012 (Tasa respuesta: 98,99%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2015 (Tasa respuesta: 99,22%)</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>18,96%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
+    <t>12,59%</t>
   </si>
 </sst>
 </file>
@@ -2397,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6587BAF-9538-4657-80E5-03D6F55CF8AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B4679B-E5A3-46AF-9255-80C13AB04D3F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3030,7 +3018,7 @@
         <v>372</v>
       </c>
       <c r="D14" s="7">
-        <v>381862</v>
+        <v>381863</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -3081,7 +3069,7 @@
         <v>1647</v>
       </c>
       <c r="D15" s="7">
-        <v>1691532</v>
+        <v>1691533</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3221,10 +3209,10 @@
         <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3227,13 @@
         <v>37264</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -3445,13 +3433,13 @@
         <v>7077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3460,13 +3448,13 @@
         <v>19793</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -3478,10 +3466,10 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3484,13 @@
         <v>69112</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>170</v>
@@ -3511,13 +3499,13 @@
         <v>174429</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>242</v>
@@ -3526,13 +3514,13 @@
         <v>243542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,28 +3535,28 @@
         <v>446640</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>745</v>
       </c>
       <c r="I24" s="7">
-        <v>768676</v>
+        <v>768677</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>1190</v>
@@ -3577,13 +3565,13 @@
         <v>1215317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,28 +3586,28 @@
         <v>2104206</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>1901</v>
       </c>
       <c r="I25" s="7">
-        <v>1937909</v>
+        <v>1937910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>3958</v>
@@ -3628,13 +3616,13 @@
         <v>4042115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3637,13 @@
         <v>646684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>460</v>
@@ -3664,13 +3652,13 @@
         <v>476601</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1090</v>
@@ -3679,13 +3667,13 @@
         <v>1123285</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,7 +3700,7 @@
         <v>3295</v>
       </c>
       <c r="I27" s="7">
-        <v>3377409</v>
+        <v>3377410</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3741,7 +3729,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AB782F-99E2-490C-9EE1-F0E10E931A63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4C8CEB-E1F6-4D72-895E-54A2CAB0E47A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3777,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3884,13 +3872,13 @@
         <v>7262</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3899,13 +3887,13 @@
         <v>21772</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3914,13 +3902,13 @@
         <v>29034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3923,13 @@
         <v>56131</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -3950,13 +3938,13 @@
         <v>116062</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -3965,13 +3953,13 @@
         <v>172193</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3974,13 @@
         <v>264631</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>461</v>
@@ -4001,13 +3989,13 @@
         <v>493360</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>701</v>
@@ -4016,13 +4004,13 @@
         <v>757991</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4025,13 @@
         <v>545535</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>583</v>
@@ -4052,13 +4040,13 @@
         <v>627936</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>1096</v>
@@ -4067,13 +4055,13 @@
         <v>1173471</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4076,13 @@
         <v>93022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -4103,13 +4091,13 @@
         <v>74794</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -4118,13 +4106,13 @@
         <v>167816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4186,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4207,13 +4195,13 @@
         <v>6139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4222,13 +4210,13 @@
         <v>8265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,10 +4234,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4258,13 +4246,13 @@
         <v>38704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4273,13 +4261,13 @@
         <v>56343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4282,13 @@
         <v>183320</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>215</v>
@@ -4309,13 +4297,13 @@
         <v>234167</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>383</v>
@@ -4324,13 +4312,13 @@
         <v>417488</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4333,13 @@
         <v>1254949</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>1085</v>
@@ -4360,13 +4348,13 @@
         <v>1166415</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>2263</v>
@@ -4375,7 +4363,7 @@
         <v>2421364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>260</v>
@@ -4414,10 +4402,10 @@
         <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>737</v>
@@ -4426,13 +4414,13 @@
         <v>767977</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4494,7 @@
         <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4536,7 +4524,7 @@
         <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4542,10 @@
         <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4566,13 +4554,13 @@
         <v>8137</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4581,13 +4569,13 @@
         <v>13421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4590,13 @@
         <v>33540</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4617,13 +4605,13 @@
         <v>32500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -4632,13 +4620,13 @@
         <v>66040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4641,13 @@
         <v>282459</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>298</v>
@@ -4668,13 +4656,13 @@
         <v>329447</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>561</v>
@@ -4683,13 +4671,13 @@
         <v>611906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4692,13 @@
         <v>157051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -4719,13 +4707,13 @@
         <v>86118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
@@ -4734,13 +4722,13 @@
         <v>243169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4796,13 @@
         <v>9389</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4823,13 +4811,13 @@
         <v>27910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4838,13 +4826,13 @@
         <v>37299</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4847,13 @@
         <v>79055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -4874,13 +4862,13 @@
         <v>162903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
         <v>220</v>
@@ -4889,13 +4877,13 @@
         <v>241957</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>320</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4898,13 @@
         <v>481491</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>704</v>
@@ -4925,13 +4913,13 @@
         <v>760027</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>1139</v>
@@ -4940,13 +4928,13 @@
         <v>1241518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4949,13 @@
         <v>2082943</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
         <v>1966</v>
@@ -4976,13 +4964,13 @@
         <v>2123798</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
         <v>3920</v>
@@ -4991,13 +4979,13 @@
         <v>4206741</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5000,13 @@
         <v>722551</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H26" s="7">
         <v>425</v>
@@ -5027,13 +5015,13 @@
         <v>456410</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M26" s="7">
         <v>1116</v>
@@ -5042,13 +5030,13 @@
         <v>1178961</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,7 +5092,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C50344-1907-42C7-8B08-2A89C5A954B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291B63DF-4F92-47A2-9279-B23B50F8B4E6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5140,7 +5128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5247,13 +5235,13 @@
         <v>4350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5262,13 +5250,13 @@
         <v>13543</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>349</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5277,13 +5265,13 @@
         <v>17893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5286,13 @@
         <v>39359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -5313,13 +5301,13 @@
         <v>87061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>116</v>
@@ -5328,13 +5316,13 @@
         <v>126421</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5337,13 @@
         <v>202336</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H6" s="7">
         <v>323</v>
@@ -5364,13 +5352,13 @@
         <v>373367</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>533</v>
@@ -5379,13 +5367,13 @@
         <v>575703</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5388,13 @@
         <v>406232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H7" s="7">
         <v>407</v>
@@ -5415,13 +5403,13 @@
         <v>439662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M7" s="7">
         <v>815</v>
@@ -5430,13 +5418,13 @@
         <v>845894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5439,13 @@
         <v>93262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -5466,13 +5454,13 @@
         <v>75548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -5481,13 +5469,13 @@
         <v>168810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5543,13 @@
         <v>4720</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5573,10 +5561,10 @@
         <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5585,13 +5573,13 @@
         <v>11736</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5594,13 @@
         <v>27941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -5621,13 +5609,13 @@
         <v>56923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -5636,13 +5624,13 @@
         <v>84864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5645,13 @@
         <v>214533</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H12" s="7">
         <v>255</v>
@@ -5672,13 +5660,13 @@
         <v>287047</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M12" s="7">
         <v>456</v>
@@ -5687,13 +5675,13 @@
         <v>501581</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>87</v>
+        <v>398</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,16 +5693,16 @@
         <v>1159</v>
       </c>
       <c r="D13" s="7">
-        <v>1235131</v>
+        <v>1235130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
         <v>1139</v>
@@ -5723,13 +5711,13 @@
         <v>1183575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M13" s="7">
         <v>2298</v>
@@ -5738,13 +5726,13 @@
         <v>2418705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5747,13 @@
         <v>584577</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>412</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -5774,13 +5762,13 @@
         <v>434822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M14" s="7">
         <v>991</v>
@@ -5789,13 +5777,13 @@
         <v>1019400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,7 +5795,7 @@
         <v>1943</v>
       </c>
       <c r="D15" s="7">
-        <v>2066902</v>
+        <v>2066901</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5869,7 +5857,7 @@
         <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5884,7 +5872,7 @@
         <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5893,13 +5881,13 @@
         <v>2004</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5902,13 @@
         <v>6642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5929,13 +5917,13 @@
         <v>7330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5944,13 +5932,13 @@
         <v>13972</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5953,13 @@
         <v>37743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -5980,13 +5968,13 @@
         <v>47881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>77</v>
@@ -5995,13 +5983,13 @@
         <v>85624</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6004,13 @@
         <v>326401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
@@ -6031,13 +6019,13 @@
         <v>345103</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M19" s="7">
         <v>626</v>
@@ -6046,13 +6034,13 @@
         <v>671504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6055,13 @@
         <v>173263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -6082,13 +6070,13 @@
         <v>141875</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>455</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -6097,13 +6085,13 @@
         <v>315138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6159,13 @@
         <v>9990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>384</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -6186,13 +6174,13 @@
         <v>21643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -6201,13 +6189,13 @@
         <v>31633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>195</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6210,13 @@
         <v>73943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -6237,13 +6225,13 @@
         <v>151314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>204</v>
@@ -6252,13 +6240,13 @@
         <v>225257</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>473</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6261,13 @@
         <v>454612</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H24" s="7">
         <v>622</v>
@@ -6288,13 +6276,13 @@
         <v>708296</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>1066</v>
@@ -6303,13 +6291,13 @@
         <v>1162908</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>482</v>
+        <v>322</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,16 +6309,16 @@
         <v>1864</v>
       </c>
       <c r="D25" s="7">
-        <v>1967763</v>
+        <v>1967764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H25" s="7">
         <v>1875</v>
@@ -6339,13 +6327,13 @@
         <v>1968340</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M25" s="7">
         <v>3739</v>
@@ -6354,13 +6342,13 @@
         <v>3936103</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,16 +6360,16 @@
         <v>804</v>
       </c>
       <c r="D26" s="7">
-        <v>851101</v>
+        <v>851102</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
@@ -6390,13 +6378,13 @@
         <v>652246</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M26" s="7">
         <v>1453</v>
@@ -6405,13 +6393,13 @@
         <v>1503347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,7 +6411,7 @@
         <v>3195</v>
       </c>
       <c r="D27" s="7">
-        <v>3357409</v>
+        <v>3357410</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6467,7 +6455,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6486,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8769F8-ADBE-48BA-A9E6-6E47349AA160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6CF28F-1A94-46DF-86D5-75BAA277C0A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6503,7 +6491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6610,13 +6598,13 @@
         <v>18624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>496</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -6625,13 +6613,13 @@
         <v>33743</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>499</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -6640,13 +6628,13 @@
         <v>52367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>507</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6649,13 @@
         <v>59886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="H5" s="7">
         <v>241</v>
@@ -6676,13 +6664,13 @@
         <v>130442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M5" s="7">
         <v>329</v>
@@ -6691,13 +6679,13 @@
         <v>190328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>510</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6700,13 @@
         <v>146108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H6" s="7">
         <v>544</v>
@@ -6727,13 +6715,13 @@
         <v>312429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M6" s="7">
         <v>736</v>
@@ -6742,13 +6730,13 @@
         <v>458537</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>370</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6751,13 @@
         <v>273515</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H7" s="7">
         <v>544</v>
@@ -6778,13 +6766,13 @@
         <v>334065</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M7" s="7">
         <v>881</v>
@@ -6793,13 +6781,13 @@
         <v>607580</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6802,13 @@
         <v>43500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -6829,13 +6817,13 @@
         <v>25274</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>535</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -6844,13 +6832,13 @@
         <v>68774</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6906,13 @@
         <v>17067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>542</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -6933,13 +6921,13 @@
         <v>12094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>459</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -6948,13 +6936,13 @@
         <v>29161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>540</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>458</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +6957,13 @@
         <v>43539</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -6984,13 +6972,13 @@
         <v>62095</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>154</v>
@@ -6999,13 +6987,13 @@
         <v>105635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>551</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7008,13 @@
         <v>283357</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>552</v>
+        <v>316</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H12" s="7">
         <v>587</v>
@@ -7035,13 +7023,13 @@
         <v>383794</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M12" s="7">
         <v>897</v>
@@ -7050,13 +7038,13 @@
         <v>667151</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7059,13 @@
         <v>1450369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H13" s="7">
         <v>1926</v>
@@ -7086,13 +7074,13 @@
         <v>1533819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M13" s="7">
         <v>3278</v>
@@ -7101,13 +7089,13 @@
         <v>2984189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>563</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7110,13 @@
         <v>367690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -7140,10 +7128,10 @@
         <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M14" s="7">
         <v>547</v>
@@ -7152,13 +7140,13 @@
         <v>625408</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,7 +7173,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7226,13 +7214,13 @@
         <v>2195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7244,10 +7232,10 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>575</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7259,7 +7247,7 @@
         <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>109</v>
@@ -7277,13 +7265,13 @@
         <v>11355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>579</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>580</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -7292,13 +7280,13 @@
         <v>8078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7307,13 +7295,13 @@
         <v>19433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7316,13 @@
         <v>69070</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -7343,13 +7331,13 @@
         <v>87006</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="M18" s="7">
         <v>210</v>
@@ -7358,13 +7346,13 @@
         <v>156076</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7367,13 @@
         <v>422539</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="H19" s="7">
         <v>705</v>
@@ -7394,13 +7382,13 @@
         <v>499984</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>597</v>
       </c>
       <c r="M19" s="7">
         <v>1159</v>
@@ -7409,13 +7397,13 @@
         <v>922524</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7418,13 @@
         <v>167880</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -7445,13 +7433,13 @@
         <v>116060</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M20" s="7">
         <v>281</v>
@@ -7460,13 +7448,13 @@
         <v>283941</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7522,13 @@
         <v>37886</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -7549,13 +7537,13 @@
         <v>48594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -7564,13 +7552,13 @@
         <v>86481</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>611</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7573,13 @@
         <v>114781</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>616</v>
+        <v>467</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>320</v>
+        <v>615</v>
       </c>
       <c r="H23" s="7">
         <v>354</v>
@@ -7600,13 +7588,13 @@
         <v>200616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>617</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M23" s="7">
         <v>511</v>
@@ -7615,13 +7603,13 @@
         <v>315396</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>619</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7624,13 @@
         <v>498535</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H24" s="7">
         <v>1266</v>
@@ -7651,13 +7639,13 @@
         <v>783229</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="M24" s="7">
         <v>1843</v>
@@ -7666,13 +7654,13 @@
         <v>1281764</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,16 +7672,16 @@
         <v>2143</v>
       </c>
       <c r="D25" s="7">
-        <v>2146423</v>
+        <v>2146422</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H25" s="7">
         <v>3175</v>
@@ -7702,28 +7690,28 @@
         <v>2367869</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M25" s="7">
         <v>5318</v>
       </c>
       <c r="N25" s="7">
-        <v>4514292</v>
+        <v>4514291</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7726,13 @@
         <v>579070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H26" s="7">
         <v>471</v>
@@ -7753,13 +7741,13 @@
         <v>399052</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="M26" s="7">
         <v>914</v>
@@ -7768,13 +7756,13 @@
         <v>978122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>648</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,7 +7774,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7816,7 +7804,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7830,7 +7818,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P40-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P40-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55A6623-03CC-430D-8834-725619D6A882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F012B9E7-C78B-4104-8A4E-E24488DE73BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89170D37-D287-453B-8A33-D970B5D52830}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3534A425-8BF1-431C-A4B2-E47CC14401B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,1900 +80,1900 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>Muy bueno</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2012 (Tasa respuesta: 98,99%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2016 (Tasa respuesta: 99,22%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Malo</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>Bueno</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>Muy bueno</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2012 (Tasa respuesta: 98,99%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2015 (Tasa respuesta: 99,22%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B4679B-E5A3-46AF-9255-80C13AB04D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216BBA4D-D639-4092-8630-5EA995EBF1F9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2776,7 +2776,7 @@
         <v>1289</v>
       </c>
       <c r="I9" s="7">
-        <v>1313325</v>
+        <v>1313324</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2871,10 +2871,10 @@
         <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -2883,13 +2883,13 @@
         <v>36115</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -2898,13 +2898,13 @@
         <v>49095</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2919,13 @@
         <v>133874</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>227</v>
@@ -2934,13 +2934,13 @@
         <v>232818</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>358</v>
@@ -2949,13 +2949,13 @@
         <v>366692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2970,13 @@
         <v>1161022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1018</v>
@@ -2985,13 +2985,13 @@
         <v>1039161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2146</v>
@@ -3000,13 +3000,13 @@
         <v>2200184</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3021,13 @@
         <v>381863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -3036,13 +3036,13 @@
         <v>268524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>634</v>
@@ -3051,13 +3051,13 @@
         <v>650387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,7 +3113,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3128,10 +3128,10 @@
         <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3140,13 +3140,13 @@
         <v>3546</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3155,13 +3155,13 @@
         <v>3546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3176,13 @@
         <v>11515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3191,13 +3191,13 @@
         <v>8219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -3209,10 +3209,10 @@
         <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3227,13 @@
         <v>37264</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -3242,13 +3242,13 @@
         <v>55899</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -3257,13 +3257,13 @@
         <v>93162</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3278,13 @@
         <v>355922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>285</v>
@@ -3293,13 +3293,13 @@
         <v>297518</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>625</v>
@@ -3308,13 +3308,13 @@
         <v>653441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3329,13 @@
         <v>146706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
@@ -3344,13 +3344,13 @@
         <v>111230</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>245</v>
@@ -3359,13 +3359,13 @@
         <v>257937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,7 +3433,7 @@
         <v>7077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>151</v>
@@ -3451,10 +3451,10 @@
         <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -3466,10 +3466,10 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3484,13 @@
         <v>69112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>170</v>
@@ -3499,13 +3499,13 @@
         <v>174429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>242</v>
@@ -3514,13 +3514,13 @@
         <v>243542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3535,13 @@
         <v>446640</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>745</v>
@@ -3550,13 +3550,13 @@
         <v>768677</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>1190</v>
@@ -3565,13 +3565,13 @@
         <v>1215317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3586,13 @@
         <v>2104206</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>1901</v>
@@ -3601,13 +3601,13 @@
         <v>1937910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>3958</v>
@@ -3616,13 +3616,13 @@
         <v>4042115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3637,13 @@
         <v>646684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>460</v>
@@ -3652,13 +3652,13 @@
         <v>476601</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>1090</v>
@@ -3667,13 +3667,13 @@
         <v>1123285</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4C8CEB-E1F6-4D72-895E-54A2CAB0E47A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB349B4C-E166-42D5-8E5E-01CD81F5296F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3872,13 +3872,13 @@
         <v>7262</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -3887,13 +3887,13 @@
         <v>21772</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3902,13 +3902,13 @@
         <v>29034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3923,13 @@
         <v>56131</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -3938,13 +3938,13 @@
         <v>116062</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -3953,13 +3953,13 @@
         <v>172193</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3974,13 @@
         <v>264631</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>461</v>
@@ -3989,13 +3989,13 @@
         <v>493360</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>701</v>
@@ -4004,13 +4004,13 @@
         <v>757991</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4025,13 @@
         <v>545535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>583</v>
@@ -4040,13 +4040,13 @@
         <v>627936</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>1096</v>
@@ -4055,13 +4055,13 @@
         <v>1173471</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4076,13 @@
         <v>93022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -4091,13 +4091,13 @@
         <v>74794</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -4106,13 +4106,13 @@
         <v>167816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4195,13 @@
         <v>6139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4210,13 +4210,13 @@
         <v>8265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4231,13 @@
         <v>17639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4246,13 +4246,13 @@
         <v>38704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4261,13 +4261,13 @@
         <v>56343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4282,13 @@
         <v>183320</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>215</v>
@@ -4297,13 +4297,13 @@
         <v>234167</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="M12" s="7">
         <v>383</v>
@@ -4312,13 +4312,13 @@
         <v>417488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4333,13 @@
         <v>1254949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>1085</v>
@@ -4348,13 +4348,13 @@
         <v>1166415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>2263</v>
@@ -4363,13 +4363,13 @@
         <v>2421364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4384,13 @@
         <v>472479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>278</v>
@@ -4399,13 +4399,13 @@
         <v>295498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>737</v>
@@ -4414,13 +4414,13 @@
         <v>767977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4476,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4491,10 +4491,10 @@
         <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4506,10 +4506,10 @@
         <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4521,10 +4521,10 @@
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4539,13 @@
         <v>5284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4554,13 +4554,13 @@
         <v>8137</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4569,13 +4569,13 @@
         <v>13421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4590,13 @@
         <v>33540</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4605,13 +4605,13 @@
         <v>32500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -4620,13 +4620,13 @@
         <v>66040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4641,13 @@
         <v>282459</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>298</v>
@@ -4656,13 +4656,13 @@
         <v>329447</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>561</v>
@@ -4671,13 +4671,13 @@
         <v>611906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4692,13 @@
         <v>157051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -4707,13 +4707,13 @@
         <v>86118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
@@ -4722,13 +4722,13 @@
         <v>243169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4796,13 @@
         <v>9389</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4811,13 +4811,13 @@
         <v>27910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4826,13 +4826,13 @@
         <v>37299</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4847,13 @@
         <v>79055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -4862,13 +4862,13 @@
         <v>162903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
         <v>220</v>
@@ -4877,13 +4877,13 @@
         <v>241957</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4898,13 @@
         <v>481491</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H24" s="7">
         <v>704</v>
@@ -4913,13 +4913,13 @@
         <v>760027</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M24" s="7">
         <v>1139</v>
@@ -4928,13 +4928,13 @@
         <v>1241518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4949,13 @@
         <v>2082943</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H25" s="7">
         <v>1966</v>
@@ -4964,13 +4964,13 @@
         <v>2123798</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>3920</v>
@@ -4979,13 +4979,13 @@
         <v>4206741</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5000,13 @@
         <v>722551</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H26" s="7">
         <v>425</v>
@@ -5015,13 +5015,13 @@
         <v>456410</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M26" s="7">
         <v>1116</v>
@@ -5030,13 +5030,13 @@
         <v>1178961</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,7 +5092,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291B63DF-4F92-47A2-9279-B23B50F8B4E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D6294-D124-4321-9515-A0ADB0058A44}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5128,7 +5128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5235,13 +5235,13 @@
         <v>4350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5250,13 +5250,13 @@
         <v>13543</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5265,13 +5265,13 @@
         <v>17893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5286,13 @@
         <v>39359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -5301,13 +5301,13 @@
         <v>87061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>116</v>
@@ -5316,13 +5316,13 @@
         <v>126421</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5337,13 @@
         <v>202336</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H6" s="7">
         <v>323</v>
@@ -5352,13 +5352,13 @@
         <v>373367</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M6" s="7">
         <v>533</v>
@@ -5367,13 +5367,13 @@
         <v>575703</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5388,13 @@
         <v>406232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H7" s="7">
         <v>407</v>
@@ -5403,13 +5403,13 @@
         <v>439662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M7" s="7">
         <v>815</v>
@@ -5418,13 +5418,13 @@
         <v>845894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5439,13 @@
         <v>93262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -5454,13 +5454,13 @@
         <v>75548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -5469,13 +5469,13 @@
         <v>168810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5543,13 @@
         <v>4720</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>386</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5558,13 +5558,13 @@
         <v>7016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5573,13 +5573,13 @@
         <v>11736</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5594,13 @@
         <v>27941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>392</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -5609,13 +5609,13 @@
         <v>56923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -5624,13 +5624,13 @@
         <v>84864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5645,13 @@
         <v>214533</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>204</v>
+        <v>400</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H12" s="7">
         <v>255</v>
@@ -5660,13 +5660,13 @@
         <v>287047</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>396</v>
+        <v>187</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M12" s="7">
         <v>456</v>
@@ -5675,13 +5675,13 @@
         <v>501581</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5696,13 @@
         <v>1235130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="H13" s="7">
         <v>1139</v>
@@ -5711,13 +5711,13 @@
         <v>1183575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>2298</v>
@@ -5726,13 +5726,13 @@
         <v>2418705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5747,13 @@
         <v>584577</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -5762,13 +5762,13 @@
         <v>434822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>991</v>
@@ -5777,13 +5777,13 @@
         <v>1019400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>418</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,7 +5839,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5857,7 +5857,7 @@
         <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5866,13 +5866,13 @@
         <v>1083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5881,13 +5881,13 @@
         <v>2004</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5902,13 @@
         <v>6642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>429</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5917,13 +5917,13 @@
         <v>7330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -5932,13 +5932,13 @@
         <v>13972</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5953,13 @@
         <v>37743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -5968,13 +5968,13 @@
         <v>47881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M18" s="7">
         <v>77</v>
@@ -5983,13 +5983,13 @@
         <v>85624</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6004,13 @@
         <v>326401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
@@ -6019,13 +6019,13 @@
         <v>345103</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M19" s="7">
         <v>626</v>
@@ -6034,13 +6034,13 @@
         <v>671504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6055,13 @@
         <v>173263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -6070,13 +6070,13 @@
         <v>141875</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>454</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -6085,13 +6085,13 @@
         <v>315138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6159,13 @@
         <v>9990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>455</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -6174,13 +6174,13 @@
         <v>21643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -6189,13 +6189,13 @@
         <v>31633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6210,13 @@
         <v>73943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -6225,13 +6225,13 @@
         <v>151314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>465</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M23" s="7">
         <v>204</v>
@@ -6240,13 +6240,13 @@
         <v>225257</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>469</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6261,13 @@
         <v>454612</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H24" s="7">
         <v>622</v>
@@ -6276,13 +6276,13 @@
         <v>708296</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M24" s="7">
         <v>1066</v>
@@ -6291,13 +6291,13 @@
         <v>1162908</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>322</v>
+        <v>478</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6312,13 @@
         <v>1967764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>1875</v>
@@ -6327,13 +6327,13 @@
         <v>1968340</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M25" s="7">
         <v>3739</v>
@@ -6342,13 +6342,13 @@
         <v>3936103</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6363,13 @@
         <v>851102</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
@@ -6378,13 +6378,13 @@
         <v>652246</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M26" s="7">
         <v>1453</v>
@@ -6393,13 +6393,13 @@
         <v>1503347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>493</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,7 +6455,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6474,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6CF28F-1A94-46DF-86D5-75BAA277C0A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA02B54-7F55-4BE8-9E82-F6FBD922A518}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6491,7 +6491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6598,13 +6598,13 @@
         <v>18624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -6613,13 +6613,13 @@
         <v>33743</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>499</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -6628,13 +6628,13 @@
         <v>52367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>502</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6649,13 @@
         <v>59886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>241</v>
@@ -6664,13 +6664,13 @@
         <v>130442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>506</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M5" s="7">
         <v>329</v>
@@ -6679,13 +6679,13 @@
         <v>190328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6700,13 @@
         <v>146108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H6" s="7">
         <v>544</v>
@@ -6715,13 +6715,13 @@
         <v>312429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M6" s="7">
         <v>736</v>
@@ -6730,10 +6730,10 @@
         <v>458537</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>519</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>520</v>
@@ -6906,13 +6906,13 @@
         <v>17067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -6921,13 +6921,13 @@
         <v>12094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>459</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>539</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -6936,13 +6936,13 @@
         <v>29161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>540</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6957,13 @@
         <v>43539</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -6972,13 +6972,13 @@
         <v>62095</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M11" s="7">
         <v>154</v>
@@ -6987,13 +6987,13 @@
         <v>105635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>534</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,7 +7008,7 @@
         <v>283357</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>316</v>
+        <v>548</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>549</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7214,13 +7214,13 @@
         <v>2195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>574</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7232,10 +7232,10 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>576</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7244,13 +7244,13 @@
         <v>4952</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>577</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7265,13 @@
         <v>11355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>577</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>578</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -7280,13 +7280,13 @@
         <v>8078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7295,13 +7295,13 @@
         <v>19433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7316,13 @@
         <v>69070</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -7331,13 +7331,13 @@
         <v>87006</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M18" s="7">
         <v>210</v>
@@ -7346,13 +7346,13 @@
         <v>156076</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7367,13 @@
         <v>422539</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H19" s="7">
         <v>705</v>
@@ -7382,13 +7382,13 @@
         <v>499984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M19" s="7">
         <v>1159</v>
@@ -7397,13 +7397,13 @@
         <v>922524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7418,13 @@
         <v>167880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -7433,13 +7433,13 @@
         <v>116060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M20" s="7">
         <v>281</v>
@@ -7448,13 +7448,13 @@
         <v>283941</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7522,13 @@
         <v>37886</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -7537,10 +7537,10 @@
         <v>48594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>611</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>612</v>
@@ -7555,10 +7555,10 @@
         <v>613</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>611</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,10 +7576,10 @@
         <v>614</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>615</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>354</v>
@@ -7588,13 +7588,13 @@
         <v>200616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M23" s="7">
         <v>511</v>
@@ -7603,7 +7603,7 @@
         <v>315396</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>616</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>617</v>
@@ -7624,13 +7624,13 @@
         <v>498535</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="H24" s="7">
         <v>1266</v>
@@ -7639,13 +7639,13 @@
         <v>783229</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="M24" s="7">
         <v>1843</v>
@@ -7654,13 +7654,13 @@
         <v>1281764</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7675,13 @@
         <v>2146422</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="H25" s="7">
         <v>3175</v>
@@ -7690,13 +7690,13 @@
         <v>2367869</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="M25" s="7">
         <v>5318</v>
@@ -7705,13 +7705,13 @@
         <v>4514291</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7726,13 @@
         <v>579070</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="H26" s="7">
         <v>471</v>
@@ -7741,13 +7741,13 @@
         <v>399052</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="M26" s="7">
         <v>914</v>
@@ -7756,13 +7756,13 @@
         <v>978122</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,7 +7818,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P40-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P40-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F012B9E7-C78B-4104-8A4E-E24488DE73BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64470B38-A89F-47F1-BB99-5DC28A43AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3534A425-8BF1-431C-A4B2-E47CC14401B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DED6C8F-CB62-46F5-BB4B-011F600ED3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="649">
   <si>
     <t>Población según su salud autopercibida en los últimos 12 meses en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -80,1900 +80,1912 @@
     <t>0,17%</t>
   </si>
   <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>Muy bueno</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2012 (Tasa respuesta: 98,99%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2016 (Tasa respuesta: 99,22%)</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>Población según su salud autopercibida en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Malo</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>Bueno</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>Muy bueno</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2012 (Tasa respuesta: 98,99%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2016 (Tasa respuesta: 99,22%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>Población según su salud autopercibida en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>14,72%</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216BBA4D-D639-4092-8630-5EA995EBF1F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7956B3C-4CA0-4722-861D-B085BF651EBF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2776,7 +2788,7 @@
         <v>1289</v>
       </c>
       <c r="I9" s="7">
-        <v>1313324</v>
+        <v>1313325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2871,10 +2883,10 @@
         <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -2883,13 +2895,13 @@
         <v>36115</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -2898,13 +2910,13 @@
         <v>49095</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2931,13 @@
         <v>133874</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>227</v>
@@ -2934,13 +2946,13 @@
         <v>232818</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>358</v>
@@ -2949,13 +2961,13 @@
         <v>366692</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2982,13 @@
         <v>1161022</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1018</v>
@@ -2985,13 +2997,13 @@
         <v>1039161</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2146</v>
@@ -3000,13 +3012,13 @@
         <v>2200184</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,16 +3030,16 @@
         <v>372</v>
       </c>
       <c r="D14" s="7">
-        <v>381863</v>
+        <v>381862</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -3036,13 +3048,13 @@
         <v>268524</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>634</v>
@@ -3051,13 +3063,13 @@
         <v>650387</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,7 +3081,7 @@
         <v>1647</v>
       </c>
       <c r="D15" s="7">
-        <v>1691533</v>
+        <v>1691532</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3113,7 +3125,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3128,10 +3140,10 @@
         <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3140,13 +3152,13 @@
         <v>3546</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3155,13 +3167,13 @@
         <v>3546</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3188,13 @@
         <v>11515</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3191,13 +3203,13 @@
         <v>8219</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -3233,7 +3245,7 @@
         <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -3242,13 +3254,13 @@
         <v>55899</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -3257,13 +3269,13 @@
         <v>93162</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3290,13 @@
         <v>355922</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>285</v>
@@ -3293,13 +3305,13 @@
         <v>297518</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>625</v>
@@ -3308,13 +3320,13 @@
         <v>653441</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3341,13 @@
         <v>146706</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>104</v>
@@ -3344,13 +3356,13 @@
         <v>111230</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>245</v>
@@ -3359,13 +3371,13 @@
         <v>257937</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3445,13 @@
         <v>7077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -3448,10 +3460,10 @@
         <v>19793</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>154</v>
@@ -3514,10 +3526,10 @@
         <v>243542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>164</v>
@@ -3547,7 +3559,7 @@
         <v>745</v>
       </c>
       <c r="I24" s="7">
-        <v>768677</v>
+        <v>768676</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>168</v>
@@ -3598,7 +3610,7 @@
         <v>1901</v>
       </c>
       <c r="I25" s="7">
-        <v>1937910</v>
+        <v>1937909</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>177</v>
@@ -3700,7 +3712,7 @@
         <v>3295</v>
       </c>
       <c r="I27" s="7">
-        <v>3377410</v>
+        <v>3377409</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3748,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB349B4C-E166-42D5-8E5E-01CD81F5296F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD40C919-D256-40F0-A5BB-EB4C1BD7C485}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3890,10 +3902,10 @@
         <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3902,13 +3914,13 @@
         <v>29034</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3935,13 @@
         <v>56131</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -3938,13 +3950,13 @@
         <v>116062</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -3953,13 +3965,13 @@
         <v>172193</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4118,13 @@
         <v>167816</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4198,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4195,13 +4207,13 @@
         <v>6139</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4210,13 +4222,13 @@
         <v>8265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4243,13 @@
         <v>17639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4246,13 +4258,13 @@
         <v>38704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4261,13 +4273,13 @@
         <v>56343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4294,13 @@
         <v>183320</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>215</v>
@@ -4297,13 +4309,13 @@
         <v>234167</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>383</v>
@@ -4312,13 +4324,13 @@
         <v>417488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4345,13 @@
         <v>1254949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>1085</v>
@@ -4348,13 +4360,13 @@
         <v>1166415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>2263</v>
@@ -4363,13 +4375,13 @@
         <v>2421364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4396,13 @@
         <v>472479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>278</v>
@@ -4399,13 +4411,13 @@
         <v>295498</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>737</v>
@@ -4414,13 +4426,13 @@
         <v>767977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4488,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4491,10 +4503,10 @@
         <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4506,10 +4518,10 @@
         <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4521,10 +4533,10 @@
         <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4551,13 @@
         <v>5284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4554,13 +4566,13 @@
         <v>8137</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4569,13 +4581,13 @@
         <v>13421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4602,13 @@
         <v>33540</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>28</v>
@@ -4605,13 +4617,13 @@
         <v>32500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -4620,13 +4632,13 @@
         <v>66040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4653,13 @@
         <v>282459</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>298</v>
@@ -4656,13 +4668,13 @@
         <v>329447</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>561</v>
@@ -4671,13 +4683,13 @@
         <v>611906</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4704,13 @@
         <v>157051</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -4707,13 +4719,13 @@
         <v>86118</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
@@ -4722,13 +4734,13 @@
         <v>243169</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4808,13 @@
         <v>9389</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4811,13 +4823,13 @@
         <v>27910</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -4826,13 +4838,13 @@
         <v>37299</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4865,7 @@
         <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -4862,13 +4874,13 @@
         <v>162903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M23" s="7">
         <v>220</v>
@@ -4877,13 +4889,13 @@
         <v>241957</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4910,13 @@
         <v>481491</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H24" s="7">
         <v>704</v>
@@ -4913,13 +4925,13 @@
         <v>760027</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
         <v>1139</v>
@@ -4928,13 +4940,13 @@
         <v>1241518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4961,13 @@
         <v>2082943</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>1966</v>
@@ -4964,13 +4976,13 @@
         <v>2123798</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>3920</v>
@@ -4979,13 +4991,13 @@
         <v>4206741</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5012,13 @@
         <v>722551</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>425</v>
@@ -5015,13 +5027,13 @@
         <v>456410</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>1116</v>
@@ -5030,13 +5042,13 @@
         <v>1178961</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D6294-D124-4321-9515-A0ADB0058A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D708AC-F45A-4F93-9C09-4DEE98E6FAC6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5128,7 +5140,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5235,13 +5247,13 @@
         <v>4350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5250,13 +5262,13 @@
         <v>13543</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5265,13 +5277,13 @@
         <v>17893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5298,13 @@
         <v>39359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -5301,13 +5313,13 @@
         <v>87061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>116</v>
@@ -5316,13 +5328,13 @@
         <v>126421</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5349,13 @@
         <v>202336</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H6" s="7">
         <v>323</v>
@@ -5352,13 +5364,13 @@
         <v>373367</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M6" s="7">
         <v>533</v>
@@ -5367,13 +5379,13 @@
         <v>575703</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5400,13 @@
         <v>406232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H7" s="7">
         <v>407</v>
@@ -5403,13 +5415,13 @@
         <v>439662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>815</v>
@@ -5418,13 +5430,13 @@
         <v>845894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5451,13 @@
         <v>93262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -5454,13 +5466,13 @@
         <v>75548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>385</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -5469,13 +5481,13 @@
         <v>168810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5555,13 @@
         <v>4720</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5558,13 +5570,13 @@
         <v>7016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5573,13 +5585,13 @@
         <v>11736</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5606,13 @@
         <v>27941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>393</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -5609,13 +5621,13 @@
         <v>56923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -5624,10 +5636,10 @@
         <v>84864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>399</v>
@@ -5663,10 +5675,10 @@
         <v>403</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M12" s="7">
         <v>456</v>
@@ -5675,7 +5687,7 @@
         <v>501581</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>405</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>406</v>
@@ -5693,7 +5705,7 @@
         <v>1159</v>
       </c>
       <c r="D13" s="7">
-        <v>1235130</v>
+        <v>1235131</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>408</v>
@@ -5753,7 +5765,7 @@
         <v>418</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>419</v>
+        <v>38</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -5762,13 +5774,13 @@
         <v>434822</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>991</v>
@@ -5777,13 +5789,13 @@
         <v>1019400</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5807,7 @@
         <v>1943</v>
       </c>
       <c r="D15" s="7">
-        <v>2066901</v>
+        <v>2066902</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5839,7 +5851,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5866,13 +5878,13 @@
         <v>1083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>426</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5881,13 +5893,13 @@
         <v>2004</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,10 +5917,10 @@
         <v>428</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5917,7 +5929,7 @@
         <v>7330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>430</v>
@@ -5935,7 +5947,7 @@
         <v>432</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>433</v>
@@ -5959,7 +5971,7 @@
         <v>435</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -5968,13 +5980,13 @@
         <v>47881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M18" s="7">
         <v>77</v>
@@ -5983,13 +5995,13 @@
         <v>85624</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6016,13 @@
         <v>326401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
@@ -6019,13 +6031,13 @@
         <v>345103</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M19" s="7">
         <v>626</v>
@@ -6034,13 +6046,13 @@
         <v>671504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6067,13 @@
         <v>173263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -6070,13 +6082,13 @@
         <v>141875</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -6085,13 +6097,13 @@
         <v>315138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6171,13 @@
         <v>9990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>461</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -6174,13 +6186,13 @@
         <v>21643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>463</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -6189,13 +6201,13 @@
         <v>31633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6222,13 @@
         <v>73943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -6225,13 +6237,13 @@
         <v>151314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>471</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M23" s="7">
         <v>204</v>
@@ -6240,13 +6252,13 @@
         <v>225257</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6273,13 @@
         <v>454612</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H24" s="7">
         <v>622</v>
@@ -6276,13 +6288,13 @@
         <v>708296</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M24" s="7">
         <v>1066</v>
@@ -6291,13 +6303,13 @@
         <v>1162908</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,16 +6321,16 @@
         <v>1864</v>
       </c>
       <c r="D25" s="7">
-        <v>1967764</v>
+        <v>1967763</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H25" s="7">
         <v>1875</v>
@@ -6327,13 +6339,13 @@
         <v>1968340</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>3739</v>
@@ -6345,10 +6357,10 @@
         <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,16 +6372,16 @@
         <v>804</v>
       </c>
       <c r="D26" s="7">
-        <v>851102</v>
+        <v>851101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
@@ -6378,13 +6390,13 @@
         <v>652246</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M26" s="7">
         <v>1453</v>
@@ -6393,13 +6405,13 @@
         <v>1503347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6423,7 @@
         <v>3195</v>
       </c>
       <c r="D27" s="7">
-        <v>3357410</v>
+        <v>3357409</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6474,7 +6486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA02B54-7F55-4BE8-9E82-F6FBD922A518}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6916ED05-0CB4-4FF2-8BFB-CF71E4AE74C4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6491,7 +6503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6598,13 +6610,13 @@
         <v>18624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>498</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -6613,13 +6625,13 @@
         <v>33743</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -6628,13 +6640,13 @@
         <v>52367</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6661,13 @@
         <v>59886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="H5" s="7">
         <v>241</v>
@@ -6664,13 +6676,13 @@
         <v>130442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>513</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M5" s="7">
         <v>329</v>
@@ -6679,13 +6691,13 @@
         <v>190328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>511</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>512</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6712,13 @@
         <v>146108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H6" s="7">
         <v>544</v>
@@ -6715,13 +6727,13 @@
         <v>312429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M6" s="7">
         <v>736</v>
@@ -6730,13 +6742,13 @@
         <v>458537</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>524</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>520</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6763,13 @@
         <v>273515</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>544</v>
@@ -6766,13 +6778,13 @@
         <v>334065</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>881</v>
@@ -6781,13 +6793,13 @@
         <v>607580</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6814,13 @@
         <v>43500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -6817,13 +6829,13 @@
         <v>25274</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>535</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -6832,13 +6844,13 @@
         <v>68774</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6918,13 @@
         <v>17067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
+        <v>542</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -6921,13 +6933,13 @@
         <v>12094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -6936,13 +6948,13 @@
         <v>29161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>462</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>539</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6969,13 @@
         <v>43539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -6972,13 +6984,13 @@
         <v>62095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>544</v>
+        <v>398</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>154</v>
@@ -6987,13 +6999,13 @@
         <v>105635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7020,13 @@
         <v>283357</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H12" s="7">
         <v>587</v>
@@ -7023,13 +7035,13 @@
         <v>383794</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M12" s="7">
         <v>897</v>
@@ -7038,13 +7050,13 @@
         <v>667151</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7071,13 @@
         <v>1450369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H13" s="7">
         <v>1926</v>
@@ -7074,13 +7086,13 @@
         <v>1533819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M13" s="7">
         <v>3278</v>
@@ -7089,13 +7101,13 @@
         <v>2984189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>563</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7122,13 @@
         <v>367690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>567</v>
+        <v>478</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
@@ -7128,10 +7140,10 @@
         <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M14" s="7">
         <v>547</v>
@@ -7140,13 +7152,13 @@
         <v>625408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,7 +7185,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7202,7 +7214,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7214,13 +7226,13 @@
         <v>2195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>574</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7232,10 +7244,10 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>576</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>577</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7244,13 +7256,13 @@
         <v>4952</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7277,13 @@
         <v>11355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>577</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>579</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -7280,13 +7292,13 @@
         <v>8078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -7295,13 +7307,13 @@
         <v>19433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>582</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,10 +7328,10 @@
         <v>69070</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>584</v>
+        <v>229</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>585</v>
@@ -7525,10 +7537,10 @@
         <v>610</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>310</v>
+        <v>611</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>611</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -7540,10 +7552,10 @@
         <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>612</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -7552,13 +7564,13 @@
         <v>86481</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7585,13 @@
         <v>114781</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>354</v>
@@ -7588,13 +7600,13 @@
         <v>200616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>617</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M23" s="7">
         <v>511</v>
@@ -7603,13 +7615,13 @@
         <v>315396</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7636,13 @@
         <v>498535</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>622</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H24" s="7">
         <v>1266</v>
@@ -7639,13 +7651,13 @@
         <v>783229</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="M24" s="7">
         <v>1843</v>
@@ -7654,13 +7666,13 @@
         <v>1281764</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,16 +7684,16 @@
         <v>2143</v>
       </c>
       <c r="D25" s="7">
-        <v>2146422</v>
+        <v>2146423</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H25" s="7">
         <v>3175</v>
@@ -7690,28 +7702,28 @@
         <v>2367869</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="M25" s="7">
         <v>5318</v>
       </c>
       <c r="N25" s="7">
-        <v>4514291</v>
+        <v>4514292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7738,13 @@
         <v>579070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H26" s="7">
         <v>471</v>
@@ -7741,13 +7753,13 @@
         <v>399052</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="M26" s="7">
         <v>914</v>
@@ -7756,13 +7768,13 @@
         <v>978122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,7 +7786,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7804,7 +7816,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>

--- a/data/trans_orig/P40-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P40-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64470B38-A89F-47F1-BB99-5DC28A43AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F935E4E1-7095-4F99-88F0-A8B46DF61C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DED6C8F-CB62-46F5-BB4B-011F600ED3D5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8CD2DEDA-3AED-49BE-8BF7-2D10AEF4AA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="644">
   <si>
     <t>Población según su salud autopercibida en los últimos 12 meses en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -1550,442 +1550,427 @@
     <t>Población según su salud autopercibida en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>39,96%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
 </sst>
 </file>
@@ -2397,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7956B3C-4CA0-4722-861D-B085BF651EBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3FFE07-BC33-4A29-8462-DE4C8ABBD972}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3030,7 +3015,7 @@
         <v>372</v>
       </c>
       <c r="D14" s="7">
-        <v>381862</v>
+        <v>381863</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -3081,7 +3066,7 @@
         <v>1647</v>
       </c>
       <c r="D15" s="7">
-        <v>1691532</v>
+        <v>1691533</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3760,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD40C919-D256-40F0-A5BB-EB4C1BD7C485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCD8ED9-30C9-4EF3-ADCE-A5A8CF5AED8D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4013,7 +3998,7 @@
         <v>701</v>
       </c>
       <c r="N6" s="7">
-        <v>757991</v>
+        <v>757990</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>216</v>
@@ -4064,7 +4049,7 @@
         <v>1096</v>
       </c>
       <c r="N7" s="7">
-        <v>1173471</v>
+        <v>1173470</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>225</v>
@@ -4166,7 +4151,7 @@
         <v>2143</v>
       </c>
       <c r="N9" s="7">
-        <v>2300504</v>
+        <v>2300503</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -4958,7 +4943,7 @@
         <v>1954</v>
       </c>
       <c r="D25" s="7">
-        <v>2082943</v>
+        <v>2082944</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>330</v>
@@ -5039,7 +5024,7 @@
         <v>1116</v>
       </c>
       <c r="N26" s="7">
-        <v>1178961</v>
+        <v>1178962</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>344</v>
@@ -5060,7 +5045,7 @@
         <v>3159</v>
       </c>
       <c r="D27" s="7">
-        <v>3375428</v>
+        <v>3375429</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5090,7 +5075,7 @@
         <v>6430</v>
       </c>
       <c r="N27" s="7">
-        <v>6906476</v>
+        <v>6906477</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5123,7 +5108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D708AC-F45A-4F93-9C09-4DEE98E6FAC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DE140D-C14C-47E1-B8DF-599CB545A428}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5705,7 +5690,7 @@
         <v>1159</v>
       </c>
       <c r="D13" s="7">
-        <v>1235131</v>
+        <v>1235130</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>408</v>
@@ -5786,7 +5771,7 @@
         <v>991</v>
       </c>
       <c r="N14" s="7">
-        <v>1019400</v>
+        <v>1019399</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>422</v>
@@ -5807,7 +5792,7 @@
         <v>1943</v>
       </c>
       <c r="D15" s="7">
-        <v>2066902</v>
+        <v>2066901</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5837,7 +5822,7 @@
         <v>3832</v>
       </c>
       <c r="N15" s="7">
-        <v>4036286</v>
+        <v>4036285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -6486,7 +6471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6916ED05-0CB4-4FF2-8BFB-CF71E4AE74C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DDB533-05AC-417B-B947-8025CCCDFE69}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6607,46 +6592,46 @@
         <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>18624</v>
+        <v>17561</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>503</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>504</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
       </c>
       <c r="I4" s="7">
-        <v>33743</v>
+        <v>29931</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
       </c>
       <c r="N4" s="7">
-        <v>52367</v>
+        <v>47493</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,46 +6643,46 @@
         <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>59886</v>
+        <v>55964</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>511</v>
+        <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H5" s="7">
         <v>241</v>
       </c>
       <c r="I5" s="7">
-        <v>130442</v>
+        <v>117900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M5" s="7">
         <v>329</v>
       </c>
       <c r="N5" s="7">
-        <v>190328</v>
+        <v>173864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>518</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,46 +6694,46 @@
         <v>192</v>
       </c>
       <c r="D6" s="7">
-        <v>146108</v>
+        <v>137764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H6" s="7">
         <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>312429</v>
+        <v>282315</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M6" s="7">
         <v>736</v>
       </c>
       <c r="N6" s="7">
-        <v>458537</v>
+        <v>420079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>370</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,46 +6745,46 @@
         <v>337</v>
       </c>
       <c r="D7" s="7">
-        <v>273515</v>
+        <v>259556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H7" s="7">
         <v>544</v>
       </c>
       <c r="I7" s="7">
-        <v>334065</v>
+        <v>301865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>530</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>881</v>
       </c>
       <c r="N7" s="7">
-        <v>607580</v>
+        <v>561421</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,46 +6796,46 @@
         <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>43500</v>
+        <v>44093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>25274</v>
+        <v>23497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>541</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
       </c>
       <c r="N8" s="7">
-        <v>68774</v>
+        <v>67590</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>541</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,7 +6847,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6877,7 +6862,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6892,7 +6877,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6915,46 +6900,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>17067</v>
+        <v>16585</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>544</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>542</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>12094</v>
+        <v>11345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>543</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>29161</v>
+        <v>27930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>462</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>545</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,46 +6951,46 @@
         <v>54</v>
       </c>
       <c r="D11" s="7">
-        <v>43539</v>
+        <v>41869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
       </c>
       <c r="I11" s="7">
-        <v>62095</v>
+        <v>57233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>548</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
         <v>154</v>
       </c>
       <c r="N11" s="7">
-        <v>105635</v>
+        <v>99102</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,46 +7002,46 @@
         <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>283357</v>
+        <v>268957</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H12" s="7">
         <v>587</v>
       </c>
       <c r="I12" s="7">
-        <v>383794</v>
+        <v>411871</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M12" s="7">
         <v>897</v>
       </c>
       <c r="N12" s="7">
-        <v>667151</v>
+        <v>680828</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,10 +7053,10 @@
         <v>1352</v>
       </c>
       <c r="D13" s="7">
-        <v>1450369</v>
+        <v>1572188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>561</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>562</v>
@@ -7083,7 +7068,7 @@
         <v>1926</v>
       </c>
       <c r="I13" s="7">
-        <v>1533819</v>
+        <v>1496491</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>564</v>
@@ -7098,13 +7083,13 @@
         <v>3278</v>
       </c>
       <c r="N13" s="7">
-        <v>2984189</v>
+        <v>3068679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>567</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>567</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>568</v>
@@ -7119,46 +7104,46 @@
         <v>259</v>
       </c>
       <c r="D14" s="7">
-        <v>367690</v>
+        <v>390728</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>569</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>478</v>
+        <v>570</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H14" s="7">
         <v>288</v>
       </c>
       <c r="I14" s="7">
-        <v>257718</v>
+        <v>260882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>572</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M14" s="7">
         <v>547</v>
       </c>
       <c r="N14" s="7">
-        <v>625408</v>
+        <v>651610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,7 +7155,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7185,7 +7170,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7200,7 +7185,7 @@
         <v>4913</v>
       </c>
       <c r="N15" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7223,37 +7208,37 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2195</v>
+        <v>2084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>577</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>576</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2757</v>
+        <v>2651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>577</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>4952</v>
+        <v>4736</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>108</v>
@@ -7262,7 +7247,7 @@
         <v>578</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,46 +7259,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>11355</v>
+        <v>10664</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>579</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>8078</v>
+        <v>7440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>19433</v>
+        <v>18103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>583</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,46 +7310,46 @@
         <v>75</v>
       </c>
       <c r="D18" s="7">
-        <v>69070</v>
+        <v>67817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>584</v>
+        <v>59</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>229</v>
+        <v>586</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
       </c>
       <c r="I18" s="7">
-        <v>87006</v>
+        <v>80305</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M18" s="7">
         <v>210</v>
       </c>
       <c r="N18" s="7">
-        <v>156076</v>
+        <v>148122</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>591</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,10 +7361,10 @@
         <v>454</v>
       </c>
       <c r="D19" s="7">
-        <v>422539</v>
+        <v>395109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>593</v>
@@ -7391,7 +7376,7 @@
         <v>705</v>
       </c>
       <c r="I19" s="7">
-        <v>499984</v>
+        <v>460015</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>595</v>
@@ -7406,7 +7391,7 @@
         <v>1159</v>
       </c>
       <c r="N19" s="7">
-        <v>922524</v>
+        <v>855124</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>598</v>
@@ -7427,7 +7412,7 @@
         <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>167880</v>
+        <v>170950</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>601</v>
@@ -7442,7 +7427,7 @@
         <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>116060</v>
+        <v>110051</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>604</v>
@@ -7457,7 +7442,7 @@
         <v>281</v>
       </c>
       <c r="N20" s="7">
-        <v>283941</v>
+        <v>281001</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>607</v>
@@ -7466,7 +7451,7 @@
         <v>608</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>609</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,7 +7463,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7493,7 +7478,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7508,7 +7493,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7531,46 +7516,46 @@
         <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>37886</v>
+        <v>36231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>611</v>
+        <v>349</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
       </c>
       <c r="I22" s="7">
-        <v>48594</v>
+        <v>43928</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>610</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
       </c>
       <c r="N22" s="7">
-        <v>86481</v>
+        <v>80158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>615</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,46 +7567,46 @@
         <v>157</v>
       </c>
       <c r="D23" s="7">
-        <v>114781</v>
+        <v>108497</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>320</v>
+        <v>615</v>
       </c>
       <c r="H23" s="7">
         <v>354</v>
       </c>
       <c r="I23" s="7">
-        <v>200616</v>
+        <v>182573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>354</v>
+        <v>616</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>617</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>618</v>
+        <v>231</v>
       </c>
       <c r="M23" s="7">
         <v>511</v>
       </c>
       <c r="N23" s="7">
-        <v>315396</v>
+        <v>291070</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>620</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>621</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,46 +7618,46 @@
         <v>577</v>
       </c>
       <c r="D24" s="7">
-        <v>498535</v>
+        <v>474537</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="H24" s="7">
         <v>1266</v>
       </c>
       <c r="I24" s="7">
-        <v>783229</v>
+        <v>774492</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="M24" s="7">
         <v>1843</v>
       </c>
       <c r="N24" s="7">
-        <v>1281764</v>
+        <v>1249029</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,46 +7669,46 @@
         <v>2143</v>
       </c>
       <c r="D25" s="7">
-        <v>2146423</v>
+        <v>2226854</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>632</v>
+        <v>565</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H25" s="7">
         <v>3175</v>
       </c>
       <c r="I25" s="7">
-        <v>2367869</v>
+        <v>2258371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M25" s="7">
         <v>5318</v>
       </c>
       <c r="N25" s="7">
-        <v>4514292</v>
+        <v>4485225</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,46 +7720,46 @@
         <v>443</v>
       </c>
       <c r="D26" s="7">
-        <v>579070</v>
+        <v>605771</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>642</v>
+        <v>269</v>
       </c>
       <c r="H26" s="7">
         <v>471</v>
       </c>
       <c r="I26" s="7">
-        <v>399052</v>
+        <v>394430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>643</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="M26" s="7">
         <v>914</v>
       </c>
       <c r="N26" s="7">
-        <v>978122</v>
+        <v>1000201</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,7 +7771,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7801,7 +7786,7 @@
         <v>5352</v>
       </c>
       <c r="I27" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7816,7 +7801,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
